--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4483425.049461428</v>
+        <v>4481544.8696911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>575370.0431679045</v>
+        <v>190846.712465845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6976137.917544411</v>
+        <v>6976137.917544412</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>362.933817400698</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.2070399508092</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>151.2725262699916</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.86965341517866</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>2.608692535667753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>144.4888345511683</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>234.4970761400737</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>62.15398405320585</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>270.0180256261398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.641307058223</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>109.0465449382724</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>249.7211944222913</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>114.4449296640514</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368551965</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981167</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>50.92457778627227</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.43647234059996</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>70.41761368552054</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>51.55100268455907</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>156.1591425336688</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,7 +2539,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>207.5440020263834</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>25.69773831382526</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>70.41761368552143</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
@@ -2770,16 +2770,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>70.41761368552112</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578918</v>
@@ -3007,16 +3007,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981166</v>
+        <v>111.7379207338264</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.546461473041</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.546461473041</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.546461473041</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.637107675368</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164666</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036446</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>575.3284526205844</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>348.0202652891861</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>348.0202652891861</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.188433646014</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1366.188433646014</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1366.188433646014</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.188433646014</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>563.9091713093267</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2268.654643287636</v>
+        <v>1408.083041312478</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.692126347224</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1541.426427740474</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.638175142229</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>744.6522703526218</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>326.6884622508087</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155882</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>822.9672145333731</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>568.2827263274862</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>278.8655562905255</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>781.8780707889953</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>373.5080755174542</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>987.4051452743431</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>898.7925182488387</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5552,7 +5552,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,22 +5595,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>108.118726268046</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>722.0157960249346</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605669</v>
+        <v>1490.383942417396</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729322</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729322</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729322</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729322</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5674,13 +5674,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875142</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449748</v>
+        <v>807.057753763075</v>
       </c>
       <c r="V19" t="n">
-        <v>663.448368995362</v>
+        <v>807.057753763075</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146755</v>
+        <v>528.7927567823884</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729322</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729322</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="20">
@@ -5756,13 +5756,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,19 +5832,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605669</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729327</v>
+        <v>333.2197602618176</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729327</v>
+        <v>175.4357503901848</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729327</v>
+        <v>175.4357503901848</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729327</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>168.3459941729327</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3459941729327</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>168.3459941729327</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K22" t="n">
         <v>281.6456777937157</v>
@@ -5917,7 +5917,7 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449752</v>
+        <v>1208.458832945469</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953624</v>
+        <v>1208.458832945469</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146759</v>
+        <v>930.1938359647821</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729327</v>
+        <v>713.3564581230389</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729327</v>
+        <v>503.7160520357831</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605669</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
         <v>1797.533454227377</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>288.2532776997405</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6163,34 +6163,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.724986903316</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U25" t="n">
-        <v>1215.98847929355</v>
+        <v>1019.690995917296</v>
       </c>
       <c r="V25" t="n">
-        <v>972.4561641439373</v>
+        <v>776.1586807676829</v>
       </c>
       <c r="W25" t="n">
-        <v>694.1911671632507</v>
+        <v>497.8936837869965</v>
       </c>
       <c r="X25" t="n">
-        <v>477.3537893215074</v>
+        <v>497.8936837869965</v>
       </c>
       <c r="Y25" t="n">
-        <v>267.7133832342514</v>
+        <v>288.2532776997405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028589</v>
+        <v>419.7848952835977</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028589</v>
+        <v>649.7480011519468</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605665</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924717</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729335</v>
+        <v>380.5799698340758</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729335</v>
+        <v>380.5799698340758</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729335</v>
+        <v>354.6226584059694</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729335</v>
+        <v>354.6226584059694</v>
       </c>
       <c r="F28" t="n">
-        <v>168.3459941729335</v>
+        <v>354.6226584059694</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3459941729335</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.980684144976</v>
+        <v>807.0577537630749</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953631</v>
+        <v>807.0577537630749</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146767</v>
+        <v>807.0577537630749</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729335</v>
+        <v>590.2203759213317</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729335</v>
+        <v>380.5799698340758</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605665</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924717</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2274.303628970133</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729335</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028587</v>
@@ -6619,22 +6619,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
         <v>1536.594541272927</v>
@@ -6643,28 +6643,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449757</v>
+        <v>807.0577537630753</v>
       </c>
       <c r="V31" t="n">
-        <v>663.448368995363</v>
+        <v>694.1911671632505</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146765</v>
+        <v>694.1911671632505</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729335</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729335</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605665</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924717</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1006.126752553338</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,16 +7172,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7494,22 +7494,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.004430061687</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N42" t="n">
-        <v>1926.416008325838</v>
+        <v>2080.88708496141</v>
       </c>
       <c r="O42" t="n">
-        <v>2595.879769628497</v>
+        <v>2329.640499045373</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2512.283976658724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7646,16 +7646,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>381.3300194168668</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M45" t="n">
-        <v>1149.698165809328</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N45" t="n">
-        <v>1954.109744073479</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>436.1942749365419</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>148.8531913054298</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,10 +11142,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>161.9478778664932</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>330.1271476070798</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>39.56892807993994</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>36.51615797628608</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.3938331833856</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>172.0780686725396</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
-        <v>63.96278301170025</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856063</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808144</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>163.7444262770535</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>57.95683898025779</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>28.96098045304007</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808141</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729165</v>
+        <v>104.6551670883573</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808141</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>119.0375585391972</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>111.8770833786757</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208577</v>
@@ -24613,13 +24613,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>67.45556335630327</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>85.78855608739529</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
         <v>137.5748216925009</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>129.3590712642902</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>591281.5128888319</v>
+        <v>591281.5128888318</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591281.5128888319</v>
+        <v>591281.5128888318</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754179</v>
@@ -26329,31 +26329,31 @@
         <v>788375.3505184437</v>
       </c>
       <c r="H2" t="n">
+        <v>788375.3505184434</v>
+      </c>
+      <c r="I2" t="n">
         <v>788375.3505184435</v>
       </c>
-      <c r="I2" t="n">
-        <v>788375.3505184436</v>
-      </c>
       <c r="J2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184437</v>
       </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184439</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642844</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642847</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569077</v>
+        <v>8832.521060568961</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26418,40 +26418,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758372</v>
+        <v>787.7936905758412</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415129</v>
+        <v>4420.71819341515</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415176</v>
+        <v>4420.718193415192</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415163</v>
+        <v>4420.718193415179</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415109</v>
+        <v>4420.718193415179</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415145</v>
+        <v>4420.718193415179</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
+        <v>92915.50246501788</v>
+      </c>
+      <c r="J5" t="n">
         <v>92915.50246501787</v>
       </c>
-      <c r="J5" t="n">
-        <v>92915.5024650179</v>
-      </c>
       <c r="K5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710098</v>
+        <v>9155.673405710215</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202548</v>
+        <v>599123.5526202546</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202548</v>
+        <v>599123.5526202543</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.963359229</v>
+        <v>164025.5042332565</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361254</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="G6" t="n">
-        <v>682206.6087994417</v>
+        <v>682124.9427510771</v>
       </c>
       <c r="H6" t="n">
-        <v>691039.1298600105</v>
+        <v>690957.4638116457</v>
       </c>
       <c r="I6" t="n">
-        <v>691039.1298600106</v>
+        <v>690957.4638116459</v>
       </c>
       <c r="J6" t="n">
-        <v>514615.9106674173</v>
+        <v>514534.2446190532</v>
       </c>
       <c r="K6" t="n">
-        <v>691039.1298600105</v>
+        <v>690957.4638116462</v>
       </c>
       <c r="L6" t="n">
         <v>645614.5710086501</v>
       </c>
       <c r="M6" t="n">
-        <v>565319.0678785256</v>
+        <v>565319.0678785254</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.0831123629</v>
+        <v>700120.0831123625</v>
       </c>
       <c r="O6" t="n">
         <v>700120.0831123627</v>
       </c>
       <c r="P6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.0831123629</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J2" t="n">
         <v>11.04065132571142</v>
@@ -26713,19 +26713,19 @@
         <v>11.04065132571142</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26759,16 +26759,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.339074370309561</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>36.03392876660382</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>60.87301268002733</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>271.4122208267991</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>379.3216775365941</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>183.2634239189666</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>62.45749068994758</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651729</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>303.1189077178017</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>53.90474713821737</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>17.64056718375474</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.351433333268153e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,13 +31127,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>61.0436881494938</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993531</v>
       </c>
       <c r="N9" t="n">
-        <v>195.5988322391989</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31841,19 +31841,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>152.4580040397282</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,22 +32318,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32552,22 +32552,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>35.83627885109456</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -32789,19 +32789,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,13 +33020,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>31.20105213445663</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,16 +33035,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,7 +33257,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33266,22 +33266,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>87.47659412325794</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,7 +33494,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33503,22 +33503,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>269.0626963997153</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>270.7639256365559</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>48.48571443651716</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>291.4295500091222</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33995,7 +33995,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34214,25 +34214,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>31.58076576442957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34378,7 +34378,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>54.69678998811287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>60.29709682323595</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>543.5994944994192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>304.8525628532086</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>279.0818020779478</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>11.01175233107081</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>10.73738595686865</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M19" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>383.8369411113148</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36294,10 +36294,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629101</v>
+        <v>470.8978973057062</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
@@ -36531,10 +36531,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>157.8248501726762</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629097</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629097</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>271.9649553488649</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
         <v>247.2780028463143</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629097</v>
+        <v>592.6337262276969</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>503.0498911601409</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>175.1095124747368</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>639.4302122693424</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>27.97347045216294</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>101.6762794142572</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>286.9827555116979</v>
+        <v>191.5727678272056</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
